--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.816421</v>
+        <v>33.51218733333334</v>
       </c>
       <c r="N2">
-        <v>59.449263</v>
+        <v>100.536562</v>
       </c>
       <c r="O2">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="P2">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="Q2">
-        <v>1908.732453770066</v>
+        <v>1827.615643924025</v>
       </c>
       <c r="R2">
-        <v>17178.59208393059</v>
+        <v>16448.54079531622</v>
       </c>
       <c r="S2">
-        <v>0.1624981651189017</v>
+        <v>0.1673645101045931</v>
       </c>
       <c r="T2">
-        <v>0.1624981651189017</v>
+        <v>0.1673645101045931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>18.17573333333333</v>
       </c>
       <c r="N3">
-        <v>54.52719999999999</v>
+        <v>54.5272</v>
       </c>
       <c r="O3">
-        <v>0.3912102278294916</v>
+        <v>0.2994407600362589</v>
       </c>
       <c r="P3">
-        <v>0.3912102278294917</v>
+        <v>0.299440760036259</v>
       </c>
       <c r="Q3">
-        <v>1750.700193763733</v>
+        <v>991.2290788238223</v>
       </c>
       <c r="R3">
-        <v>15756.3017438736</v>
+        <v>8921.0617094144</v>
       </c>
       <c r="S3">
-        <v>0.1490442354024031</v>
+        <v>0.09077213238478522</v>
       </c>
       <c r="T3">
-        <v>0.1490442354024031</v>
+        <v>0.09077213238478525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.039044333333333</v>
+        <v>2.975281333333333</v>
       </c>
       <c r="N4">
-        <v>6.117133</v>
+        <v>8.925844</v>
       </c>
       <c r="O4">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="P4">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="Q4">
-        <v>196.4022713137393</v>
+        <v>162.2594984859876</v>
       </c>
       <c r="R4">
-        <v>1767.620441823654</v>
+        <v>1460.335486373888</v>
       </c>
       <c r="S4">
-        <v>0.01672052500109686</v>
+        <v>0.01485896751004894</v>
       </c>
       <c r="T4">
-        <v>0.01672052500109686</v>
+        <v>0.01485896751004895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.429072666666666</v>
+        <v>6.035726666666666</v>
       </c>
       <c r="N5">
-        <v>19.287218</v>
+        <v>18.10718</v>
       </c>
       <c r="O5">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="P5">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="Q5">
-        <v>619.2530753415426</v>
+        <v>329.1634881581511</v>
       </c>
       <c r="R5">
-        <v>5573.277678073884</v>
+        <v>2962.47139342336</v>
       </c>
       <c r="S5">
-        <v>0.05271953556847715</v>
+        <v>0.03014325584433338</v>
       </c>
       <c r="T5">
-        <v>0.05271953556847715</v>
+        <v>0.03014325584433339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.816421</v>
+        <v>33.51218733333334</v>
       </c>
       <c r="N6">
-        <v>59.449263</v>
+        <v>100.536562</v>
       </c>
       <c r="O6">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="P6">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="Q6">
-        <v>365.9037800336487</v>
+        <v>618.7916588198458</v>
       </c>
       <c r="R6">
-        <v>3293.134020302838</v>
+        <v>5569.124929378612</v>
       </c>
       <c r="S6">
-        <v>0.03115087855717927</v>
+        <v>0.05666605184711212</v>
       </c>
       <c r="T6">
-        <v>0.03115087855717927</v>
+        <v>0.05666605184711213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>18.17573333333333</v>
       </c>
       <c r="N7">
-        <v>54.52719999999999</v>
+        <v>54.5272</v>
       </c>
       <c r="O7">
-        <v>0.3912102278294916</v>
+        <v>0.2994407600362589</v>
       </c>
       <c r="P7">
-        <v>0.3912102278294917</v>
+        <v>0.299440760036259</v>
       </c>
       <c r="Q7">
         <v>335.6090149452444</v>
       </c>
       <c r="R7">
-        <v>3020.481134507199</v>
+        <v>3020.4811345072</v>
       </c>
       <c r="S7">
-        <v>0.02857176186125343</v>
+        <v>0.03073350710239974</v>
       </c>
       <c r="T7">
-        <v>0.02857176186125344</v>
+        <v>0.03073350710239975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.039044333333333</v>
+        <v>2.975281333333333</v>
       </c>
       <c r="N8">
-        <v>6.117133</v>
+        <v>8.925844</v>
       </c>
       <c r="O8">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="P8">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="Q8">
-        <v>37.65029160527311</v>
+        <v>54.9376038453271</v>
       </c>
       <c r="R8">
-        <v>338.852624447458</v>
+        <v>494.438434607944</v>
       </c>
       <c r="S8">
-        <v>0.003205322616045109</v>
+        <v>0.005030929333780427</v>
       </c>
       <c r="T8">
-        <v>0.003205322616045108</v>
+        <v>0.005030929333780428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.429072666666666</v>
+        <v>6.035726666666666</v>
       </c>
       <c r="N9">
-        <v>19.287218</v>
+        <v>18.10718</v>
       </c>
       <c r="O9">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="P9">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="Q9">
-        <v>118.7107394844075</v>
+        <v>111.4477333007422</v>
       </c>
       <c r="R9">
-        <v>1068.396655359668</v>
+        <v>1003.02959970668</v>
       </c>
       <c r="S9">
-        <v>0.01010632857843573</v>
+        <v>0.0102058632230232</v>
       </c>
       <c r="T9">
-        <v>0.01010632857843573</v>
+        <v>0.0102058632230232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.816421</v>
+        <v>33.51218733333334</v>
       </c>
       <c r="N10">
-        <v>59.449263</v>
+        <v>100.536562</v>
       </c>
       <c r="O10">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="P10">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="Q10">
-        <v>299.766626872043</v>
+        <v>420.7910773740442</v>
       </c>
       <c r="R10">
-        <v>2697.899641848388</v>
+        <v>3787.119696366398</v>
       </c>
       <c r="S10">
-        <v>0.02552035343370205</v>
+        <v>0.0385340827844317</v>
       </c>
       <c r="T10">
-        <v>0.02552035343370205</v>
+        <v>0.0385340827844317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>18.17573333333333</v>
       </c>
       <c r="N11">
-        <v>54.52719999999999</v>
+        <v>54.5272</v>
       </c>
       <c r="O11">
-        <v>0.3912102278294916</v>
+        <v>0.2994407600362589</v>
       </c>
       <c r="P11">
-        <v>0.3912102278294917</v>
+        <v>0.299440760036259</v>
       </c>
       <c r="Q11">
-        <v>274.9476442925333</v>
+        <v>228.2210449387555</v>
       </c>
       <c r="R11">
-        <v>2474.5287986328</v>
+        <v>2053.9894044488</v>
       </c>
       <c r="S11">
-        <v>0.02340741239719251</v>
+        <v>0.02089941805254156</v>
       </c>
       <c r="T11">
-        <v>0.02340741239719251</v>
+        <v>0.02089941805254157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.039044333333333</v>
+        <v>2.975281333333333</v>
       </c>
       <c r="N12">
-        <v>6.117133</v>
+        <v>8.925844</v>
       </c>
       <c r="O12">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="P12">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="Q12">
-        <v>30.84499677544634</v>
+        <v>37.35870253085288</v>
       </c>
       <c r="R12">
-        <v>277.604970979017</v>
+        <v>336.2283227776759</v>
       </c>
       <c r="S12">
-        <v>0.002625960159690493</v>
+        <v>0.003421135602557435</v>
       </c>
       <c r="T12">
-        <v>0.002625960159690493</v>
+        <v>0.003421135602557436</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.429072666666666</v>
+        <v>6.035726666666666</v>
       </c>
       <c r="N13">
-        <v>19.287218</v>
+        <v>18.10718</v>
       </c>
       <c r="O13">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="P13">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="Q13">
-        <v>97.25375874896467</v>
+        <v>75.78675487635776</v>
       </c>
       <c r="R13">
-        <v>875.2838287406821</v>
+        <v>682.0807938872199</v>
       </c>
       <c r="S13">
-        <v>0.008279608447170485</v>
+        <v>0.006940197269851001</v>
       </c>
       <c r="T13">
-        <v>0.008279608447170487</v>
+        <v>0.006940197269851003</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.816421</v>
+        <v>33.51218733333334</v>
       </c>
       <c r="N14">
-        <v>59.449263</v>
+        <v>100.536562</v>
       </c>
       <c r="O14">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="P14">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="Q14">
-        <v>2435.624236909611</v>
+        <v>3161.773321801651</v>
       </c>
       <c r="R14">
-        <v>21920.6181321865</v>
+        <v>28455.95989621486</v>
       </c>
       <c r="S14">
-        <v>0.2073546078368376</v>
+        <v>0.2895404429396004</v>
       </c>
       <c r="T14">
-        <v>0.2073546078368376</v>
+        <v>0.2895404429396005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>18.17573333333333</v>
       </c>
       <c r="N15">
-        <v>54.52719999999999</v>
+        <v>54.5272</v>
       </c>
       <c r="O15">
-        <v>0.3912102278294916</v>
+        <v>0.2994407600362589</v>
       </c>
       <c r="P15">
-        <v>0.3912102278294917</v>
+        <v>0.299440760036259</v>
       </c>
       <c r="Q15">
-        <v>2233.968314978399</v>
+        <v>1714.825361469422</v>
       </c>
       <c r="R15">
-        <v>20105.7148348056</v>
+        <v>15433.4282532248</v>
       </c>
       <c r="S15">
-        <v>0.1901868181686426</v>
+        <v>0.1570357024965323</v>
       </c>
       <c r="T15">
-        <v>0.1901868181686426</v>
+        <v>0.1570357024965324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.039044333333333</v>
+        <v>2.975281333333333</v>
       </c>
       <c r="N16">
-        <v>6.117133</v>
+        <v>8.925844</v>
       </c>
       <c r="O16">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="P16">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="Q16">
-        <v>250.617697232001</v>
+        <v>280.7087777057995</v>
       </c>
       <c r="R16">
-        <v>2255.559275088009</v>
+        <v>2526.378999352196</v>
       </c>
       <c r="S16">
-        <v>0.02133610494550249</v>
+        <v>0.0257059996279739</v>
       </c>
       <c r="T16">
-        <v>0.02133610494550249</v>
+        <v>0.0257059996279739</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.429072666666666</v>
+        <v>6.035726666666666</v>
       </c>
       <c r="N17">
-        <v>19.287218</v>
+        <v>18.10718</v>
       </c>
       <c r="O17">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="P17">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="Q17">
-        <v>790.1934061547458</v>
+        <v>569.452520736291</v>
       </c>
       <c r="R17">
-        <v>7111.740655392713</v>
+        <v>5125.07268662662</v>
       </c>
       <c r="S17">
-        <v>0.06727238190746948</v>
+        <v>0.05214780387643526</v>
       </c>
       <c r="T17">
-        <v>0.06727238190746949</v>
+        <v>0.05214780387643526</v>
       </c>
     </row>
   </sheetData>
